--- a/biology/Zoologie/Calumma_nasutum/Calumma_nasutum.xlsx
+++ b/biology/Zoologie/Calumma_nasutum/Calumma_nasutum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Calumma nasutum est un groupe de sauriens de la famille des Chamaeleonidae[1]. Ce complexe  comporterait 16 espèces, selon la dernière étude publiée en février 2020[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Calumma nasutum est un groupe de sauriens de la famille des Chamaeleonidae. Ce complexe  comporterait 16 espèces, selon la dernière étude publiée en février 2020.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Toutes les différentes espèces de Calumma nasutum sont endémique de Madagascar[1]. Elle se rencontre dans le Nord et dans l'est de l'île y compris les îles de Nosy Be et de Nosy Komba.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Toutes les différentes espèces de Calumma nasutum sont endémique de Madagascar. Elle se rencontre dans le Nord et dans l'est de l'île y compris les îles de Nosy Be et de Nosy Komba.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Calumma nasutum mesure jusqu'à 150 mm dont environ 100 mm pour la queue. Son dos est gris, beige ou brun uniforme avec parfois une ligne longitudinale blanche ou grise. Ses membres présentent assez rarement des motifs de couleur jaune et bleu turquoise.
 </t>
@@ -573,9 +589,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>L'espèce Calumma Radamanus, proposée en 1933, puis rejetée en 1942, est finalement considérée comme valide (par Prötzel et al., 2020[3] ). En 2020, trois nouvelles espèces sont distinguées au sein de ce complexe d'espèce[Lequel ?] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>L'espèce Calumma Radamanus, proposée en 1933, puis rejetée en 1942, est finalement considérée comme valide (par Prötzel et al., 2020 ). En 2020, trois nouvelles espèces sont distinguées au sein de ce complexe d'espèce[Lequel ?] :
 Calumma emelinae : côte Est de Madagascar
 Calumma tjiasmantoi : sud-Est,
 Calumma ratnasariae : nord de l’île
@@ -620,7 +638,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Duméril &amp; Bibron, 1836 : Erpetologie Générale ou Histoire Naturelle Complete des Reptiles. Librairie Encyclopédique Roret, Paris, vol. 3, p. 1-517 (texte intégral).</t>
         </is>
